--- a/log/2024-01-26.xlsx
+++ b/log/2024-01-26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2830,6 +2830,3178 @@
         <v>58.8</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:19</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:21</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:26</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:29</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:31</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:37</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:39</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:41</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:43</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:45</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:47</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:49</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:51</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:53</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:55</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C200" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:57</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:00:59</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:01:02</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:01:04</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:01:06</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:01:08</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:02:18</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C207" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:02:20</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:03</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C209" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:06</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:08</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C211" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:10</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C212" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:12</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:14</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C214" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:16</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C215" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:18</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C216" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:27</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C217" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:29</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C218" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:31</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C219" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:37</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C220" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:39</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:48</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:51</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:03:53</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:17</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C225" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:19</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C226" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:21</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C227" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:23</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C228" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:26</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C229" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:28</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C230" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:30</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C231" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:32</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C232" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:34</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C233" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:36</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C234" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:38</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C235" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:40</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C236" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:42</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C237" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:44</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C238" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:47</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C239" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:49</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C240" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:51</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C241" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:53</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C242" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:55</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C243" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:57</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C244" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:08:59</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C245" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:01</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C246" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:03</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C247" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:05</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C248" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:08</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C249" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:10</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C250" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:12</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C251" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:14</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C252" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:16</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C253" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:18</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C254" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:20</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C255" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:22</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C256" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:24</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C257" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:26</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C258" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:28</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C259" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:31</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C260" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:33</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C261" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:35</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C262" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:37</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C263" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:39</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C264" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:41</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C265" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:43</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C266" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:45</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C267" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:47</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C268" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:49</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C269" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:51</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C270" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:54</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C271" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:56</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C272" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:09:58</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C273" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:00</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C274" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:02</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C275" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:04</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C276" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:06</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C277" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:08</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C278" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:10</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C279" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:12</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C280" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:14</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C281" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:17</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C282" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:19</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C283" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:21</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C284" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:23</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C285" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:25</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C286" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:27</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C287" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:29</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C288" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:31</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C289" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:33</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C290" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:35</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C291" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:37</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C292" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:40</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C293" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:42</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C294" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:10:44</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C295" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:11:10</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C296" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:11:12</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C297" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:11:14</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C298" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:12:26</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C299" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:12:28</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C300" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:12:30</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C301" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:12:32</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C302" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:12:34</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C303" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:12:37</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C304" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:09</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C305" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:11</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C306" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:13</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C307" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:15</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C308" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:18</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C309" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:20</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C310" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:23</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C311" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:36</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C312" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:38</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C313" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:40</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C314" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:46</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C315" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:48</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C316" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:13:50</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C317" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:14:18</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C318" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:14:20</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C319" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:14:22</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C320" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:14:24</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C321" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:14:30</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C322" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:14:33</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C323" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:14:36</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C324" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:14:38</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C325" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:14:42</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C326" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:14:44</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C327" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:15:41</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C328" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:15:44</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C329" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:15:46</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C330" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:15:48</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C331" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:15:50</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C332" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:15:52</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C333" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:15:58</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C334" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C335" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:11</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C336" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:13</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C337" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:15</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C338" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:17</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C339" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:19</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C340" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:21</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C341" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:23</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C342" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:25</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C343" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:27</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C344" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:29</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C345" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:32</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C346" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:34</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C347" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:36</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C348" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:38</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C349" t="n">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:40</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C350" t="n">
+        <v>64.40000000000001</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:42</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C351" t="n">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:44</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C352" t="n">
+        <v>69.90000000000001</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:46</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C353" t="n">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:48</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C354" t="n">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:50</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C355" t="n">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:53</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C356" t="n">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:55</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C357" t="n">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:57</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C358" t="n">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:16:59</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C359" t="n">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:01</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C360" t="n">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:03</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C361" t="n">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:05</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C362" t="n">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:07</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C363" t="n">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:09</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C364" t="n">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:11</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C365" t="n">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:14</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C366" t="n">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:16</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C367" t="n">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:18</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C368" t="n">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:20</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C369" t="n">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:22</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C370" t="n">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:24</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C371" t="n">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:26</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C372" t="n">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:28</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C373" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:30</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C374" t="n">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:32</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C375" t="n">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:34</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C376" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:37</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C377" t="n">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:39</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C378" t="n">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:41</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C379" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:43</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C380" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:45</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C381" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:47</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C382" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:49</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C383" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:51</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C384" t="n">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:53</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C385" t="n">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:55</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C386" t="n">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:17:58</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C387" t="n">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:18:56</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C388" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:18:58</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C389" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C390" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:02</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C391" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:04</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C392" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:06</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C393" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:08</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C394" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:10</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C395" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:12</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C396" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:15</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C397" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:17</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C398" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:29</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C399" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:31</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C400" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:33</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C401" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:35</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C402" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:19:40</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C403" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:17</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C404" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:19</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C405" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:21</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C406" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:24</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C407" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:26</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C408" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:28</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C409" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:30</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C410" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:32</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C411" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:34</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C412" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:36</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C413" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:38</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C414" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:40</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C415" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:42</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C416" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:45</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C417" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:47</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C418" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:49</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C419" t="n">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:51</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C420" t="n">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:53</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C421" t="n">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:55</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C422" t="n">
+        <v>67.09999999999999</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:57</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C423" t="n">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:21:59</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C424" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:22:01</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C425" t="n">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:22:04</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C426" t="n">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:22:06</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C427" t="n">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:22:08</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C428" t="n">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2024-01-26 15:22:10</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C429" t="n">
+        <v>60.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
